--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/农、林、牧、渔业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/农、林、牧、渔业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,617 +558,372 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>818887.4</v>
+        <v>2004176.68728304</v>
       </c>
       <c r="C2" t="n">
-        <v>4797145.78</v>
+        <v>11236220.7976218</v>
       </c>
       <c r="D2" t="n">
-        <v>111522265.08</v>
+        <v>287862000</v>
       </c>
       <c r="E2" t="n">
-        <v>134431208.138413</v>
+        <v>385628325.61401</v>
       </c>
       <c r="F2" t="n">
-        <v>5968377.21838323</v>
+        <v>18924174.38599</v>
       </c>
       <c r="G2" t="n">
-        <v>152960404.780909</v>
+        <v>405336000</v>
       </c>
       <c r="H2" t="n">
-        <v>264482669.860909</v>
+        <v>693198000</v>
       </c>
       <c r="I2" t="n">
-        <v>40355500</v>
+        <v>92202499.58363689</v>
       </c>
       <c r="J2" t="n">
-        <v>4150515.69364656</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8410303.730466699</v>
-      </c>
+        <v>783500</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>24747300</v>
+        <v>54421113.8217003</v>
       </c>
       <c r="M2" t="n">
-        <v>569970</v>
+        <v>172743.704477221</v>
       </c>
       <c r="N2" t="n">
-        <v>1405699.6</v>
+        <v>1170581.78037052</v>
       </c>
       <c r="O2" t="n">
-        <v>5026066</v>
+        <v>11376971.3659144</v>
       </c>
       <c r="P2" t="n">
-        <v>4241720.2</v>
+        <v>6761072.13689671</v>
       </c>
       <c r="Q2" t="n">
-        <v>3703100</v>
+        <v>4900754.99648773</v>
       </c>
       <c r="R2" t="n">
-        <v>3065830</v>
+        <v>7092896.39992181</v>
       </c>
       <c r="S2" t="n">
-        <v>797955</v>
+        <v>362264.724407303</v>
       </c>
       <c r="T2" t="n">
-        <v>3689724</v>
+        <v>15487695.5378619</v>
       </c>
       <c r="U2" t="n">
-        <v>439177.3</v>
+        <v>562009.476028749</v>
       </c>
       <c r="V2" t="n">
-        <v>723665.8</v>
+        <v>2363358.51944571</v>
       </c>
       <c r="W2" t="n">
-        <v>1522460</v>
+        <v>5514421.04173832</v>
       </c>
       <c r="X2" t="n">
-        <v>509764</v>
+        <v>987155.904726308</v>
       </c>
       <c r="Y2" t="n">
-        <v>15108300</v>
+        <v>71246063.5214811</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1614620.88376194</v>
+        <v>669336.189830738</v>
       </c>
       <c r="C3" t="n">
-        <v>2870358.85725717</v>
+        <v>7776503.05106349</v>
       </c>
       <c r="D3" t="n">
-        <v>119482762.054965</v>
+        <v>370625314.01072</v>
       </c>
       <c r="E3" t="n">
-        <v>133159686.496138</v>
+        <v>529963185.764565</v>
       </c>
       <c r="F3" t="n">
-        <v>7649132.09558494</v>
+        <v>22581542.1845129</v>
       </c>
       <c r="G3" t="n">
-        <v>166304660.934759</v>
+        <v>523588159.180807</v>
       </c>
       <c r="H3" t="n">
-        <v>285787422.989724</v>
+        <v>894213473.191527</v>
       </c>
       <c r="I3" t="n">
-        <v>46368195.5851701</v>
+        <v>123205603.451774</v>
       </c>
       <c r="J3" t="n">
-        <v>5446504.26679617</v>
-      </c>
-      <c r="K3" t="n">
-        <v>20049338.07624</v>
-      </c>
+        <v>-28956568.7682706</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>19248702.0597101</v>
+        <v>75796652.0338487</v>
       </c>
       <c r="M3" t="n">
-        <v>497113.205506275</v>
+        <v>81428.0899742014</v>
       </c>
       <c r="N3" t="n">
-        <v>1194940.61686932</v>
+        <v>320135.164657712</v>
       </c>
       <c r="O3" t="n">
-        <v>7957969.71951315</v>
+        <v>13979197.7114386</v>
       </c>
       <c r="P3" t="n">
-        <v>3964841.28227261</v>
+        <v>7309381.93123375</v>
       </c>
       <c r="Q3" t="n">
-        <v>2814691.71361744</v>
+        <v>14499087.9430496</v>
       </c>
       <c r="R3" t="n">
-        <v>3310202.53634824</v>
+        <v>8920335.710441981</v>
       </c>
       <c r="S3" t="n">
-        <v>213489.736366619</v>
+        <v>397114.613178941</v>
       </c>
       <c r="T3" t="n">
-        <v>6152180.20258996</v>
+        <v>11724430.0006816</v>
       </c>
       <c r="U3" t="n">
-        <v>980424.621672107</v>
+        <v>59549.2083807166</v>
       </c>
       <c r="V3" t="n">
-        <v>1162704.4193848</v>
+        <v>429625.3695984</v>
       </c>
       <c r="W3" t="n">
-        <v>4513873.13935976</v>
+        <v>11048752.1671095</v>
       </c>
       <c r="X3" t="n">
-        <v>900993.808475095</v>
+        <v>289937.832727609</v>
       </c>
       <c r="Y3" t="n">
-        <v>15717459.6670905</v>
+        <v>94118243.54173011</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1857791.72813538</v>
+        <v>708054.682735182</v>
       </c>
       <c r="C4" t="n">
-        <v>4473997.73537182</v>
+        <v>8535861.18466185</v>
       </c>
       <c r="D4" t="n">
-        <v>162757603.895793</v>
+        <v>441523148.400039</v>
       </c>
       <c r="E4" t="n">
-        <v>208972657.299572</v>
+        <v>635107176.683814</v>
       </c>
       <c r="F4" t="n">
-        <v>11945295.1984554</v>
+        <v>20600414.9218954</v>
       </c>
       <c r="G4" t="n">
-        <v>230809358.600736</v>
+        <v>629040500.289677</v>
       </c>
       <c r="H4" t="n">
-        <v>393566962.496529</v>
+        <v>1070563648.68972</v>
       </c>
       <c r="I4" t="n">
-        <v>61717615.1995775</v>
+        <v>138998154.315437</v>
       </c>
       <c r="J4" t="n">
-        <v>1209199.2215367</v>
+        <v>-39300200</v>
       </c>
       <c r="K4" t="n">
-        <v>8682206.88117229</v>
+        <v>12633108.6839676</v>
       </c>
       <c r="L4" t="n">
-        <v>25982159.969807</v>
+        <v>97413171.4675566</v>
       </c>
       <c r="M4" t="n">
-        <v>746537.649186054</v>
+        <v>91308.56310347001</v>
       </c>
       <c r="N4" t="n">
-        <v>1003741.10536239</v>
+        <v>416636.452788819</v>
       </c>
       <c r="O4" t="n">
-        <v>8615858.138151631</v>
+        <v>13388643.1033844</v>
       </c>
       <c r="P4" t="n">
-        <v>4530911.90589127</v>
+        <v>8872037.5420793</v>
       </c>
       <c r="Q4" t="n">
-        <v>4188809.70129523</v>
+        <v>9365810.516834021</v>
       </c>
       <c r="R4" t="n">
-        <v>4339453.04953664</v>
+        <v>7238433.71667723</v>
       </c>
       <c r="S4" t="n">
-        <v>336761.593137298</v>
+        <v>485911.420947539</v>
       </c>
       <c r="T4" t="n">
-        <v>9132506.07808109</v>
+        <v>12700448.3907415</v>
       </c>
       <c r="U4" t="n">
-        <v>1699349.53509911</v>
+        <v>39718.8591582119</v>
       </c>
       <c r="V4" t="n">
-        <v>1425315.86498291</v>
+        <v>424382.14915338</v>
       </c>
       <c r="W4" t="n">
-        <v>4143830.81469695</v>
+        <v>10926573.93388</v>
       </c>
       <c r="X4" t="n">
-        <v>1179405.46345941</v>
+        <v>246852.432007611</v>
       </c>
       <c r="Y4" t="n">
-        <v>27383558.364021</v>
+        <v>131671149.668893</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1469214.67531524</v>
+        <v>162651.176373229</v>
       </c>
       <c r="C5" t="n">
-        <v>7862940.4084841</v>
+        <v>9088672.181030869</v>
       </c>
       <c r="D5" t="n">
-        <v>202338262.213172</v>
+        <v>446716806.567994</v>
       </c>
       <c r="E5" t="n">
-        <v>271816270.018377</v>
+        <v>652709226.265703</v>
       </c>
       <c r="F5" t="n">
-        <v>14297447.674872</v>
+        <v>22853924.3728632</v>
       </c>
       <c r="G5" t="n">
-        <v>286591737.693249</v>
+        <v>654523532.998569</v>
       </c>
       <c r="H5" t="n">
-        <v>488929999.906421</v>
+        <v>1101240339.56656</v>
       </c>
       <c r="I5" t="n">
-        <v>68771565.467088</v>
+        <v>146837892.414638</v>
       </c>
       <c r="J5" t="n">
-        <v>478020</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>37291505.9370712</v>
-      </c>
+        <v>-34106164.4009778</v>
+      </c>
+      <c r="K5" t="n">
+        <v>13066546.7609813</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>113271.449163029</v>
-      </c>
-      <c r="N5" t="n">
-        <v>818680.5859452781</v>
-      </c>
-      <c r="O5" t="n">
-        <v>8517007.88524498</v>
-      </c>
+        <v>750296.040230272</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>5310450.21304781</v>
+        <v>13229625.8802458</v>
       </c>
       <c r="Q5" t="n">
-        <v>3961123.9753875</v>
+        <v>94975047.0020155</v>
       </c>
       <c r="R5" t="n">
-        <v>4673773.96942734</v>
+        <v>10039869.6441306</v>
       </c>
       <c r="S5" t="n">
-        <v>271598.959656525</v>
-      </c>
-      <c r="T5" t="n">
-        <v>9707947.25386879</v>
-      </c>
+        <v>220878.149018812</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>330853.561047181</v>
+        <v>618681.641730552</v>
       </c>
       <c r="V5" t="n">
-        <v>1458964.18979246</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4063621.63263329</v>
-      </c>
+        <v>1004273.00248263</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>692876.994128025</v>
+        <v>472505.668313535</v>
       </c>
       <c r="Y5" t="n">
-        <v>47022865.055871</v>
+        <v>95429792.63124999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2004176.68728304</v>
+        <v>164747.47787442</v>
       </c>
       <c r="C6" t="n">
-        <v>11236220.7976218</v>
+        <v>9250538.131403111</v>
       </c>
       <c r="D6" t="n">
-        <v>287862000</v>
+        <v>509936007.832905</v>
       </c>
       <c r="E6" t="n">
-        <v>385628325.61401</v>
+        <v>821109376.632051</v>
       </c>
       <c r="F6" t="n">
-        <v>18924174.38599</v>
+        <v>23048579.7015093</v>
       </c>
       <c r="G6" t="n">
-        <v>405336000</v>
+        <v>821747242.438066</v>
       </c>
       <c r="H6" t="n">
-        <v>693198000</v>
+        <v>1331683250.27097</v>
       </c>
       <c r="I6" t="n">
-        <v>92202499.58363689</v>
+        <v>183133769.008583</v>
       </c>
       <c r="J6" t="n">
-        <v>783500</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>54421113.8217003</v>
-      </c>
+        <v>-45528240.6524828</v>
+      </c>
+      <c r="K6" t="n">
+        <v>23117526.7569887</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>172743.704477221</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1170581.78037052</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11376971.3659144</v>
-      </c>
+        <v>767866.2729125899</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>6761072.13689671</v>
+        <v>13820151.5805655</v>
       </c>
       <c r="Q6" t="n">
-        <v>4900754.99648773</v>
+        <v>95670197.32379431</v>
       </c>
       <c r="R6" t="n">
-        <v>7092896.39992181</v>
+        <v>10832560.9768839</v>
       </c>
       <c r="S6" t="n">
-        <v>362264.724407303</v>
-      </c>
-      <c r="T6" t="n">
-        <v>15487695.5378619</v>
-      </c>
+        <v>255022.543439289</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>562009.476028749</v>
+        <v>603973.349919599</v>
       </c>
       <c r="V6" t="n">
-        <v>2363358.51944571</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5514421.04173832</v>
-      </c>
+        <v>1063651.36280846</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>987155.904726308</v>
+        <v>527672.17759183</v>
       </c>
       <c r="Y6" t="n">
-        <v>71246063.5214811</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>669336.189830738</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7776503.05106349</v>
-      </c>
-      <c r="D7" t="n">
-        <v>370625314.01072</v>
-      </c>
-      <c r="E7" t="n">
-        <v>529963185.764565</v>
-      </c>
-      <c r="F7" t="n">
-        <v>22581542.1845129</v>
-      </c>
-      <c r="G7" t="n">
-        <v>523588159.180807</v>
-      </c>
-      <c r="H7" t="n">
-        <v>894213473.191527</v>
-      </c>
-      <c r="I7" t="n">
-        <v>123205603.451774</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-28956568.7682706</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>75796652.0338487</v>
-      </c>
-      <c r="M7" t="n">
-        <v>81428.0899742014</v>
-      </c>
-      <c r="N7" t="n">
-        <v>320135.164657712</v>
-      </c>
-      <c r="O7" t="n">
-        <v>13979197.7114386</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7309381.93123375</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>14499087.9430496</v>
-      </c>
-      <c r="R7" t="n">
-        <v>8920335.710441981</v>
-      </c>
-      <c r="S7" t="n">
-        <v>397114.613178941</v>
-      </c>
-      <c r="T7" t="n">
-        <v>11724430.0006816</v>
-      </c>
-      <c r="U7" t="n">
-        <v>59549.2083807166</v>
-      </c>
-      <c r="V7" t="n">
-        <v>429625.3695984</v>
-      </c>
-      <c r="W7" t="n">
-        <v>11048752.1671095</v>
-      </c>
-      <c r="X7" t="n">
-        <v>289937.832727609</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>94118243.54173011</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>708054.682735182</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8535861.18466185</v>
-      </c>
-      <c r="D8" t="n">
-        <v>441523148.400039</v>
-      </c>
-      <c r="E8" t="n">
-        <v>635107176.683814</v>
-      </c>
-      <c r="F8" t="n">
-        <v>20600414.9218954</v>
-      </c>
-      <c r="G8" t="n">
-        <v>629040500.289677</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1070563648.68972</v>
-      </c>
-      <c r="I8" t="n">
-        <v>138998154.315437</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-39300200</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12633108.6839676</v>
-      </c>
-      <c r="L8" t="n">
-        <v>97413171.4675566</v>
-      </c>
-      <c r="M8" t="n">
-        <v>91308.56310347001</v>
-      </c>
-      <c r="N8" t="n">
-        <v>416636.452788819</v>
-      </c>
-      <c r="O8" t="n">
-        <v>13388643.1033844</v>
-      </c>
-      <c r="P8" t="n">
-        <v>8872037.5420793</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9365810.516834021</v>
-      </c>
-      <c r="R8" t="n">
-        <v>7238433.71667723</v>
-      </c>
-      <c r="S8" t="n">
-        <v>485911.420947539</v>
-      </c>
-      <c r="T8" t="n">
-        <v>12700448.3907415</v>
-      </c>
-      <c r="U8" t="n">
-        <v>39718.8591582119</v>
-      </c>
-      <c r="V8" t="n">
-        <v>424382.14915338</v>
-      </c>
-      <c r="W8" t="n">
-        <v>10926573.93388</v>
-      </c>
-      <c r="X8" t="n">
-        <v>246852.432007611</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>131671149.668893</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>162651.176373229</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9088672.181030869</v>
-      </c>
-      <c r="D9" t="n">
-        <v>446716806.567994</v>
-      </c>
-      <c r="E9" t="n">
-        <v>652709226.265703</v>
-      </c>
-      <c r="F9" t="n">
-        <v>22853924.3728632</v>
-      </c>
-      <c r="G9" t="n">
-        <v>654523532.998569</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1101240339.56656</v>
-      </c>
-      <c r="I9" t="n">
-        <v>146837892.414638</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-34106164.4009778</v>
-      </c>
-      <c r="K9" t="n">
-        <v>13066546.7609813</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>750296.040230272</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>13229625.8802458</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>94975047.0020155</v>
-      </c>
-      <c r="R9" t="n">
-        <v>10039869.6441306</v>
-      </c>
-      <c r="S9" t="n">
-        <v>220878.149018812</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>618681.641730552</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1004273.00248263</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
-        <v>472505.668313535</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>95429792.63124999</v>
+        <v>108184867.522413</v>
       </c>
     </row>
   </sheetData>
